--- a/3.数据表示实验/求余结果.xlsx
+++ b/3.数据表示实验/求余结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21408" windowHeight="9947"/>
+    <workbookView windowWidth="10500" windowHeight="9684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
   <si>
     <t>常量</t>
   </si>
@@ -245,6 +245,66 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -252,10 +312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -263,13 +323,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,17 +341,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,13 +374,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -342,16 +395,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,9 +432,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,15 +454,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,31 +479,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,31 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,66 +653,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -558,48 +660,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,6 +678,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,49 +739,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,9 +762,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,145 +788,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1194,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1205,789 +1259,1127 @@
     <col min="1" max="1" width="27.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1111</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11110</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1">
+        <v>11001</v>
+      </c>
+      <c r="D47" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10111</v>
+      </c>
+      <c r="D48" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10110</v>
+      </c>
+      <c r="D50" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10010</v>
+      </c>
+      <c r="D52" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="1">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="1">
+        <v>101</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
